--- a/project/CV/CV_87.xlsx
+++ b/project/CV/CV_87.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,1288 +498,3706 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bernalillo</t>
+          <t>anderson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4479670</v>
+        <v>617022</v>
       </c>
       <c r="D2" t="n">
-        <v>75511</v>
+        <v>7997</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>35001</v>
+        <v>47001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.036</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.014</v>
+        <v>0.105</v>
       </c>
       <c r="I2" t="n">
-        <v>0.057</v>
+        <v>0.112</v>
       </c>
       <c r="J2" t="n">
-        <v>0.135</v>
+        <v>0.215</v>
       </c>
       <c r="K2" t="n">
-        <v>0.758</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>catron</t>
+          <t>bedford</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6098</v>
+        <v>572516</v>
       </c>
       <c r="D3" t="n">
-        <v>426</v>
+        <v>8172</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>35003</v>
+        <v>47003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.039</v>
+        <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>0.036</v>
+        <v>0.246</v>
       </c>
       <c r="J3" t="n">
-        <v>0.109</v>
+        <v>0.248</v>
       </c>
       <c r="K3" t="n">
-        <v>0.762</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>chaves</t>
+          <t>benton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>752288</v>
+        <v>136351</v>
       </c>
       <c r="D4" t="n">
-        <v>9243</v>
+        <v>3272</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>35005</v>
+        <v>47005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.109</v>
       </c>
       <c r="I4" t="n">
-        <v>0.108</v>
+        <v>0.206</v>
       </c>
       <c r="J4" t="n">
-        <v>0.144</v>
+        <v>0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.634</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cibola</t>
+          <t>bledsoe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>343482</v>
+        <v>290562</v>
       </c>
       <c r="D5" t="n">
-        <v>9358</v>
+        <v>1176</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>35006</v>
+        <v>47007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.059</v>
+        <v>0.122</v>
       </c>
       <c r="I5" t="n">
-        <v>0.014</v>
+        <v>0.131</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8390000000000001</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>colfax</t>
+          <t>blount</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55497</v>
+        <v>1128899</v>
       </c>
       <c r="D6" t="n">
-        <v>1983</v>
+        <v>11960</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>35007</v>
+        <v>47009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.041</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.019</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.091</v>
+        <v>0.097</v>
       </c>
       <c r="J6" t="n">
-        <v>0.106</v>
+        <v>0.183</v>
       </c>
       <c r="K6" t="n">
-        <v>0.743</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>curry</t>
+          <t>bradley</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>473515</v>
+        <v>1129347</v>
       </c>
       <c r="D7" t="n">
-        <v>4500</v>
+        <v>8727</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>35009</v>
+        <v>47011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.011</v>
+        <v>0.121</v>
       </c>
       <c r="H7" t="n">
-        <v>0.129</v>
+        <v>0.098</v>
       </c>
       <c r="I7" t="n">
-        <v>0.111</v>
+        <v>0.126</v>
       </c>
       <c r="J7" t="n">
-        <v>0.209</v>
+        <v>0.282</v>
       </c>
       <c r="K7" t="n">
-        <v>0.54</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>de baca</t>
+          <t>campbell</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8159</v>
+        <v>297809</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3773</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>35011</v>
+        <v>47013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.036</v>
+        <v>0.059</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.204</v>
       </c>
       <c r="J8" t="n">
-        <v>0.098</v>
+        <v>0.109</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7120000000000001</v>
+        <v>0.5539999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>doña ana</t>
+          <t>cannon</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2078493</v>
+        <v>148120</v>
       </c>
       <c r="D9" t="n">
-        <v>31022</v>
+        <v>1231</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>35013</v>
+        <v>47015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.011</v>
+        <v>0.209</v>
       </c>
       <c r="H9" t="n">
-        <v>0.044</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.036</v>
+        <v>0.238</v>
       </c>
       <c r="J9" t="n">
-        <v>0.097</v>
+        <v>0.182</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eddy</t>
+          <t>carroll</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>499657</v>
+        <v>322270</v>
       </c>
       <c r="D10" t="n">
-        <v>7743</v>
+        <v>6439</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>35015</v>
+        <v>47017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>0.179</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.092</v>
+        <v>0.163</v>
       </c>
       <c r="J10" t="n">
-        <v>0.239</v>
+        <v>0.234</v>
       </c>
       <c r="K10" t="n">
-        <v>0.399</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>carter</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>95884</v>
+        <v>504845</v>
       </c>
       <c r="D11" t="n">
-        <v>1674</v>
+        <v>10905</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>35017</v>
+        <v>47019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.043</v>
+        <v>0.115</v>
       </c>
       <c r="H11" t="n">
         <v>0.031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="J11" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5720000000000001</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>guadalupe</t>
+          <t>cheatham</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45299</v>
+        <v>347913</v>
       </c>
       <c r="D12" t="n">
-        <v>526</v>
+        <v>3366</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>35019</v>
+        <v>47021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.014</v>
+        <v>0.018</v>
       </c>
       <c r="H12" t="n">
-        <v>0.049</v>
+        <v>0.067</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="J12" t="n">
-        <v>0.098</v>
+        <v>0.28</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7659999999999999</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>harding</t>
+          <t>chester</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>902</v>
+        <v>191762</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3776</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>35021</v>
+        <v>47023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.057</v>
+        <v>0.108</v>
       </c>
       <c r="H13" t="n">
-        <v>0.152</v>
+        <v>0.068</v>
       </c>
       <c r="I13" t="n">
-        <v>0.062</v>
+        <v>0.122</v>
       </c>
       <c r="J13" t="n">
-        <v>0.115</v>
+        <v>0.362</v>
       </c>
       <c r="K13" t="n">
-        <v>0.614</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hidalgo</t>
+          <t>claiborne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35897</v>
+        <v>194976</v>
       </c>
       <c r="D14" t="n">
-        <v>752</v>
+        <v>2456</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>35023</v>
+        <v>47025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.056</v>
+        <v>0.163</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="J14" t="n">
-        <v>0.153</v>
+        <v>0.236</v>
       </c>
       <c r="K14" t="n">
-        <v>0.569</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lea</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>755335</v>
+        <v>97122</v>
       </c>
       <c r="D15" t="n">
-        <v>9692</v>
+        <v>2687</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>35025</v>
+        <v>47027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.112</v>
+        <v>0.099</v>
       </c>
       <c r="H15" t="n">
-        <v>0.024</v>
+        <v>0.105</v>
       </c>
       <c r="I15" t="n">
-        <v>0.115</v>
+        <v>0.264</v>
       </c>
       <c r="J15" t="n">
-        <v>0.331</v>
+        <v>0.126</v>
       </c>
       <c r="K15" t="n">
-        <v>0.418</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>cocke</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>122662</v>
+        <v>335333</v>
       </c>
       <c r="D16" t="n">
-        <v>1344</v>
+        <v>5348</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>35027</v>
+        <v>47029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04</v>
+        <v>0.197</v>
       </c>
       <c r="H16" t="n">
-        <v>0.012</v>
+        <v>0.118</v>
       </c>
       <c r="I16" t="n">
-        <v>0.055</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>0.162</v>
+        <v>0.171</v>
       </c>
       <c r="K16" t="n">
-        <v>0.731</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>los alamos</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30457</v>
+        <v>550720</v>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>7534</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>35028</v>
+        <v>47031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001</v>
+        <v>0.165</v>
       </c>
       <c r="H17" t="n">
-        <v>0.041</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>0.076</v>
+        <v>0.174</v>
       </c>
       <c r="J17" t="n">
-        <v>0.173</v>
+        <v>0.208</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7090000000000001</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>luna</t>
+          <t>crockett</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>277663</v>
+        <v>203654</v>
       </c>
       <c r="D18" t="n">
-        <v>4730</v>
+        <v>4870</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>35029</v>
+        <v>47033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.105</v>
+        <v>0.14</v>
       </c>
       <c r="H18" t="n">
-        <v>0.046</v>
+        <v>0.078</v>
       </c>
       <c r="I18" t="n">
-        <v>0.024</v>
+        <v>0.123</v>
       </c>
       <c r="J18" t="n">
-        <v>0.11</v>
+        <v>0.226</v>
       </c>
       <c r="K18" t="n">
-        <v>0.715</v>
+        <v>0.4320000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mckinley</t>
+          <t>cumberland</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1573969</v>
+        <v>516595</v>
       </c>
       <c r="D19" t="n">
-        <v>70083</v>
+        <v>7282</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>35031</v>
+        <v>47035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01</v>
+        <v>0.096</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008</v>
+        <v>0.201</v>
       </c>
       <c r="J19" t="n">
-        <v>0.202</v>
+        <v>0.214</v>
       </c>
       <c r="K19" t="n">
-        <v>0.721</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mora</t>
+          <t>davidson</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9961</v>
+        <v>9896347</v>
       </c>
       <c r="D20" t="n">
-        <v>230</v>
+        <v>91598</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>35033</v>
+        <v>47037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002</v>
+        <v>0.02</v>
       </c>
       <c r="H20" t="n">
-        <v>0.027</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.067</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0.098</v>
+        <v>0.181</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8059999999999999</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>otero</t>
+          <t>decatur</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>478161</v>
+        <v>164638</v>
       </c>
       <c r="D21" t="n">
-        <v>5186</v>
+        <v>2593</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>35035</v>
+        <v>47039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.175</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03</v>
+        <v>0.171</v>
       </c>
       <c r="I21" t="n">
-        <v>0.143</v>
+        <v>0.168</v>
       </c>
       <c r="J21" t="n">
-        <v>0.158</v>
+        <v>0.168</v>
       </c>
       <c r="K21" t="n">
-        <v>0.595</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>quay</t>
+          <t>dekalb</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>38005</v>
+        <v>240914</v>
       </c>
       <c r="D22" t="n">
-        <v>848</v>
+        <v>4134</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>35037</v>
+        <v>47041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.049</v>
+        <v>0.157</v>
       </c>
       <c r="H22" t="n">
         <v>0.152</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.231</v>
       </c>
       <c r="J22" t="n">
-        <v>0.159</v>
+        <v>0.132</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5710000000000001</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rio arriba</t>
+          <t>dickson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>254731</v>
+        <v>547950</v>
       </c>
       <c r="D23" t="n">
-        <v>4903</v>
+        <v>6826</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>35039</v>
+        <v>47043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="I23" t="n">
-        <v>0.102</v>
+        <v>0.079</v>
       </c>
       <c r="J23" t="n">
-        <v>0.162</v>
+        <v>0.336</v>
       </c>
       <c r="K23" t="n">
-        <v>0.675</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>roosevelt</t>
+          <t>dyer</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>164403</v>
+        <v>541556</v>
       </c>
       <c r="D24" t="n">
-        <v>3045</v>
+        <v>8402</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>35041</v>
+        <v>47045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.175</v>
       </c>
       <c r="H24" t="n">
-        <v>0.154</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="J24" t="n">
-        <v>0.146</v>
+        <v>0.204</v>
       </c>
       <c r="K24" t="n">
-        <v>0.602</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>san juan</t>
+          <t>fayette</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1420475</v>
+        <v>445160</v>
       </c>
       <c r="D25" t="n">
-        <v>60537</v>
+        <v>6467</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>35045</v>
+        <v>47047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.057</v>
+        <v>0.022</v>
       </c>
       <c r="H25" t="n">
-        <v>0.015</v>
+        <v>0.001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.118</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.255</v>
+        <v>0.205</v>
       </c>
       <c r="K25" t="n">
-        <v>0.555</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>san miguel</t>
+          <t>fentress</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>84573</v>
+        <v>215032</v>
       </c>
       <c r="D26" t="n">
-        <v>379</v>
+        <v>3085</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>35047</v>
+        <v>47049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004</v>
+        <v>0.123</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02</v>
+        <v>0.122</v>
       </c>
       <c r="I26" t="n">
-        <v>0.057</v>
+        <v>0.157</v>
       </c>
       <c r="J26" t="n">
-        <v>0.119</v>
+        <v>0.162</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sandoval</t>
+          <t>franklin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>924402</v>
+        <v>399151</v>
       </c>
       <c r="D27" t="n">
-        <v>18437</v>
+        <v>5916</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>35043</v>
+        <v>47051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.017</v>
+        <v>0.166</v>
       </c>
       <c r="H27" t="n">
-        <v>0.015</v>
+        <v>0.092</v>
       </c>
       <c r="I27" t="n">
-        <v>0.096</v>
+        <v>0.13</v>
       </c>
       <c r="J27" t="n">
-        <v>0.11</v>
+        <v>0.201</v>
       </c>
       <c r="K27" t="n">
-        <v>0.762</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>santa fe</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>802887</v>
+        <v>598471</v>
       </c>
       <c r="D28" t="n">
-        <v>7647</v>
+        <v>11155</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>35049</v>
+        <v>47053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008</v>
+        <v>0.182</v>
       </c>
       <c r="H28" t="n">
-        <v>0.016</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>0.031</v>
+        <v>0.111</v>
       </c>
       <c r="J28" t="n">
-        <v>0.143</v>
+        <v>0.26</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8029999999999999</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sierra</t>
+          <t>giles</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>53743</v>
+        <v>301817</v>
       </c>
       <c r="D29" t="n">
-        <v>2536</v>
+        <v>8061</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>35051</v>
+        <v>47055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03</v>
+        <v>0.061</v>
       </c>
       <c r="H29" t="n">
-        <v>0.039</v>
+        <v>0.068</v>
       </c>
       <c r="I29" t="n">
-        <v>0.033</v>
+        <v>0.192</v>
       </c>
       <c r="J29" t="n">
-        <v>0.239</v>
+        <v>0.237</v>
       </c>
       <c r="K29" t="n">
-        <v>0.659</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>socorro</t>
+          <t>grainger</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>100030</v>
+        <v>195987</v>
       </c>
       <c r="D30" t="n">
-        <v>4737</v>
+        <v>2729</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>35053</v>
+        <v>47057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002</v>
+        <v>0.126</v>
       </c>
       <c r="H30" t="n">
-        <v>0.008</v>
+        <v>0.134</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05</v>
+        <v>0.129</v>
       </c>
       <c r="J30" t="n">
-        <v>0.193</v>
+        <v>0.221</v>
       </c>
       <c r="K30" t="n">
-        <v>0.746</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>taos</t>
+          <t>greene</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>122562</v>
+        <v>601796</v>
       </c>
       <c r="D31" t="n">
-        <v>3531</v>
+        <v>12465</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>35055</v>
+        <v>47059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006</v>
+        <v>0.125</v>
       </c>
       <c r="H31" t="n">
-        <v>0.041</v>
+        <v>0.178</v>
       </c>
       <c r="I31" t="n">
-        <v>0.055</v>
+        <v>0.033</v>
       </c>
       <c r="J31" t="n">
-        <v>0.113</v>
+        <v>0.254</v>
       </c>
       <c r="K31" t="n">
-        <v>0.785</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>torrance</t>
+          <t>grundy</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>64108</v>
+        <v>142778</v>
       </c>
       <c r="D32" t="n">
-        <v>678</v>
+        <v>2446</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>35057</v>
+        <v>47061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.097</v>
+        <v>0.142</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005</v>
+        <v>0.165</v>
       </c>
       <c r="I32" t="n">
-        <v>0.035</v>
+        <v>0.151</v>
       </c>
       <c r="J32" t="n">
-        <v>0.167</v>
+        <v>0.212</v>
       </c>
       <c r="K32" t="n">
-        <v>0.696</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>union</t>
+          <t>hamblen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>33054</v>
+        <v>733349</v>
       </c>
       <c r="D33" t="n">
-        <v>774</v>
+        <v>11891</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>35059</v>
+        <v>47063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.12</v>
+        <v>0.157</v>
       </c>
       <c r="H33" t="n">
-        <v>0.118</v>
+        <v>0.113</v>
       </c>
       <c r="I33" t="n">
-        <v>0.127</v>
+        <v>0.121</v>
       </c>
       <c r="J33" t="n">
-        <v>0.242</v>
+        <v>0.189</v>
       </c>
       <c r="K33" t="n">
-        <v>0.393</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>valencia</t>
+          <t>hamilton</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>tennessee</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>518599</v>
+        <v>3766643</v>
       </c>
       <c r="D34" t="n">
-        <v>5771</v>
+        <v>35883</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>35061</v>
+        <v>47065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006</v>
+        <v>0.116</v>
       </c>
       <c r="H34" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="I34" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>hancock</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>40182</v>
+      </c>
+      <c r="D35" t="n">
+        <v>740</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F35" t="n">
+        <v>47067</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>hardeman</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>434216</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7061</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F36" t="n">
+        <v>47069</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>hardin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>337078</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5392</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F37" t="n">
+        <v>47071</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>hawkins</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>409170</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7232</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F38" t="n">
+        <v>47073</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>haywood</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>297700</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5672</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F39" t="n">
+        <v>47075</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>henderson</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>368428</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5992</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F40" t="n">
+        <v>47077</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>henry</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>265405</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4460</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F41" t="n">
+        <v>47079</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>hickman</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>229571</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3262</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F42" t="n">
+        <v>47081</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>houston</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>97318</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2707</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F43" t="n">
+        <v>47083</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>humphreys</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>130787</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1659</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F44" t="n">
+        <v>47085</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>jackson</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>118808</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2038</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F45" t="n">
+        <v>47087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>jefferson</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>465281</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6834</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>47089</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>johnson</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>239380</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2971</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F47" t="n">
+        <v>47091</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>knox</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3967539</v>
+      </c>
+      <c r="D48" t="n">
+        <v>37583</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F48" t="n">
+        <v>47093</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>lake</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>273209</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F49" t="n">
+        <v>47095</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.143</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.648</v>
+      <c r="I49" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>lauderdale</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>348396</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4305</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>47097</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>lawrence</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>502258</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6627</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>47099</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>lewis</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>124486</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>47101</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>lincoln</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>337462</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3267</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F53" t="n">
+        <v>47103</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3670000000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>loudon</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>499638</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4155</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>47105</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.573</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>macon</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>367498</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6411</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F55" t="n">
+        <v>47111</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>madison</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>995157</v>
+      </c>
+      <c r="D56" t="n">
+        <v>19960</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F56" t="n">
+        <v>47113</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>marion</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>224750</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3478</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F57" t="n">
+        <v>47115</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>marshall</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>335080</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3572</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F58" t="n">
+        <v>47117</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>maury</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1085361</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12045</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F59" t="n">
+        <v>47119</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mcminn</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>508438</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10216</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F60" t="n">
+        <v>47107</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mcnairy</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>270116</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5334</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F61" t="n">
+        <v>47109</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>meigs</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>106843</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1695</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F62" t="n">
+        <v>47121</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.453</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>monroe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>442635</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7472</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F63" t="n">
+        <v>47123</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>montgomery</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1397521</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15959</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F64" t="n">
+        <v>47125</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>moore</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>76822</v>
+      </c>
+      <c r="D65" t="n">
+        <v>677</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F65" t="n">
+        <v>47127</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>morgan</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>162813</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1532</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F66" t="n">
+        <v>47129</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>obion</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>448340</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7766</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F67" t="n">
+        <v>47131</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>overton</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>273216</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4657</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F68" t="n">
+        <v>47133</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>perry</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>91067</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2324</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F69" t="n">
+        <v>47135</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pickett</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>65348</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F70" t="n">
+        <v>47137</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>polk</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>146273</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F71" t="n">
+        <v>47139</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>putnam</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1150885</v>
+      </c>
+      <c r="D72" t="n">
+        <v>15460</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F72" t="n">
+        <v>47141</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rhea</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>375627</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5430</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F73" t="n">
+        <v>47143</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>roane</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>468836</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5656</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F74" t="n">
+        <v>47145</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>robertson</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>844479</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10811</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F75" t="n">
+        <v>47147</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>rutherford</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3660671</v>
+      </c>
+      <c r="D76" t="n">
+        <v>33752</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F76" t="n">
+        <v>47149</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>scott</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>191229</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2208</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F77" t="n">
+        <v>47151</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>sequatchie</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>121806</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1392</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F78" t="n">
+        <v>47153</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>sevier</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1073514</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8944</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F79" t="n">
+        <v>47155</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>shelby</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>10050964</v>
+      </c>
+      <c r="D80" t="n">
+        <v>148296</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F80" t="n">
+        <v>47157</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>smith</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>262291</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3387</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F81" t="n">
+        <v>47159</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.507</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>stewart</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>102129</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2162</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F82" t="n">
+        <v>47161</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sullivan</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1186494</v>
+      </c>
+      <c r="D83" t="n">
+        <v>19356</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F83" t="n">
+        <v>47163</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sumner</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2003631</v>
+      </c>
+      <c r="D84" t="n">
+        <v>33325</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F84" t="n">
+        <v>47165</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>tipton</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>711891</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7385</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F85" t="n">
+        <v>47167</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.5329999999999999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>trousdale</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>503238</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2412</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F86" t="n">
+        <v>47169</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>unicoi</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>156938</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3556</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F87" t="n">
+        <v>47171</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>union</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>142710</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F88" t="n">
+        <v>47173</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>van buren</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>63483</v>
+      </c>
+      <c r="D89" t="n">
+        <v>640</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F89" t="n">
+        <v>47175</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>warren</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>477715</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4418</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F90" t="n">
+        <v>47177</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1138203</v>
+      </c>
+      <c r="D91" t="n">
+        <v>17778</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F91" t="n">
+        <v>47179</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>wayne</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>342679</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2046</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F92" t="n">
+        <v>47181</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>weakley</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>385146</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5776</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F93" t="n">
+        <v>47183</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>322486</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4419</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F94" t="n">
+        <v>47185</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>williamson</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2250819</v>
+      </c>
+      <c r="D95" t="n">
+        <v>16529</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F95" t="n">
+        <v>47187</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.604</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>wilson</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>tennessee</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1508798</v>
+      </c>
+      <c r="D96" t="n">
+        <v>17241</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F96" t="n">
+        <v>47189</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.5679999999999999</v>
       </c>
     </row>
   </sheetData>
